--- a/data.xlsx
+++ b/data.xlsx
@@ -14,42 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Name and ID</t>
-  </si>
-  <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
-    <t>9ba8445a-32ff-11ef-9ef6-3db804fa6af3</t>
-  </si>
-  <si>
-    <t>9ba907ab-32ff-11ef-9ef6-df29bf37e2ff</t>
-  </si>
-  <si>
-    <t>9ba9f20c-32ff-11ef-9ef6-77da2688c4d4</t>
-  </si>
-  <si>
-    <t>9baab55d-32ff-11ef-9ef6-2dbf250d12b7</t>
-  </si>
-  <si>
-    <t>9bab78ae-32ff-11ef-9ef6-45ce5904e8a9</t>
-  </si>
-  <si>
-    <t>Координаты: Y: 7532064.98; X: 5438158.12</t>
-  </si>
-  <si>
-    <t>Координаты: Y: 7531904.16; X: 5439166.04</t>
-  </si>
-  <si>
-    <t>Координаты: Y: 7531821.32; X: 5439958.12</t>
-  </si>
-  <si>
-    <t>Координаты: Y: 7529492.66; X: 5442164.98</t>
-  </si>
-  <si>
-    <t>Координаты: Y: 7530384.77; X: 5440398.47</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+  <si>
+    <t>Цена за м2</t>
+  </si>
+  <si>
+    <t>Координаты</t>
+  </si>
+  <si>
+    <t>134 500 ₽ за м²</t>
+  </si>
+  <si>
+    <t>128 049 ₽ за м²</t>
+  </si>
+  <si>
+    <t>115 700 ₽ за м²</t>
+  </si>
+  <si>
+    <t>365 109 ₽ за м²</t>
+  </si>
+  <si>
+    <t>174 401 ₽ за м²</t>
+  </si>
+  <si>
+    <t>201 842 ₽ за м²</t>
+  </si>
+  <si>
+    <t>232 980 ₽ за м²</t>
+  </si>
+  <si>
+    <t>202 925 ₽ за м²</t>
+  </si>
+  <si>
+    <t>126 048 ₽ за м²</t>
+  </si>
+  <si>
+    <t>215 384 ₽ за м²</t>
+  </si>
+  <si>
+    <t>329 782 ₽ за м²</t>
+  </si>
+  <si>
+    <t>128 000 ₽ за м²</t>
+  </si>
+  <si>
+    <t>192 600 ₽ за м²</t>
+  </si>
+  <si>
+    <t>208 000 ₽ за м²</t>
+  </si>
+  <si>
+    <t>365 097 ₽ за м²</t>
+  </si>
+  <si>
+    <t>252 703 ₽ за м²</t>
+  </si>
+  <si>
+    <t>171 100 ₽ за м²</t>
+  </si>
+  <si>
+    <t>195 000 ₽ за м²</t>
+  </si>
+  <si>
+    <t>354 951 ₽ за м²</t>
+  </si>
+  <si>
+    <t>263 545 ₽ за м²</t>
+  </si>
+  <si>
+    <t>208 949 ₽ за м²</t>
+  </si>
+  <si>
+    <t>314 454 ₽ за м²</t>
+  </si>
+  <si>
+    <t>210 000 ₽ за м²</t>
+  </si>
+  <si>
+    <t>303 629 ₽ за м²</t>
+  </si>
+  <si>
+    <t>135 274 ₽ за м²</t>
+  </si>
+  <si>
+    <t>195 726 ₽ за м²</t>
+  </si>
+  <si>
+    <t>281 884 ₽ за м²</t>
+  </si>
+  <si>
+    <t>251 515 ₽ за м²</t>
+  </si>
+  <si>
+    <t>132 900 ₽ за м²</t>
+  </si>
+  <si>
+    <t>244 800 ₽ за м²</t>
+  </si>
+  <si>
+    <t>261 000 ₽ за м²</t>
+  </si>
+  <si>
+    <t>55.785665 49.108462</t>
+  </si>
+  <si>
+    <t>55.785139 49.108893</t>
+  </si>
+  <si>
+    <t>55.701359 49.151348</t>
+  </si>
+  <si>
+    <t>55.789335 49.102623</t>
+  </si>
+  <si>
+    <t>55.785291 49.108471</t>
+  </si>
+  <si>
+    <t>55.794305 49.182834</t>
+  </si>
+  <si>
+    <t>55.798313 49.188367</t>
+  </si>
+  <si>
+    <t>55.792792 49.169889</t>
+  </si>
+  <si>
+    <t>55.799553 49.239706</t>
+  </si>
+  <si>
+    <t>55.792837 49.168793</t>
+  </si>
+  <si>
+    <t>55.785007 49.21661</t>
+  </si>
+  <si>
+    <t>55.73107 49.093182</t>
+  </si>
+  <si>
+    <t>55.788439 49.216574</t>
   </si>
 </sst>
 </file>
@@ -407,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -440,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -451,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -473,7 +575,425 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
